--- a/diary/2019-10-10(H).xlsx
+++ b/diary/2019-10-10(H).xlsx
@@ -469,7 +469,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -702,16 +702,16 @@
         <v>3</v>
       </c>
       <c r="B18" s="1">
-        <f>SUM(B3:B17)</f>
-        <v>141.32</v>
+        <f>SUM(B2:B17)</f>
+        <v>154.91999999999999</v>
       </c>
       <c r="C18" s="1">
-        <f>SUM(C3:C17)</f>
-        <v>182.1</v>
+        <f>SUM(C2:C17)</f>
+        <v>188.5</v>
       </c>
       <c r="D18" s="1">
-        <f>SUM(D3:D17)</f>
-        <v>66.300000000000011</v>
+        <f>SUM(D2:D17)</f>
+        <v>72.7</v>
       </c>
       <c r="E18" s="1">
         <f>SUM(E2:E17)</f>
